--- a/VT_Model_ELC_V01.xlsx
+++ b/VT_Model_ELC_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\Projekt-main\Projekt-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E0BCB0-6D2B-4EE7-950E-50F723DCCAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73742A-D392-4E63-B8FC-031545562C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="138" r:id="rId1"/>
@@ -527,17 +527,17 @@
     </comment>
     <comment ref="X5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Produkcja energii elektrycznej netto w pełnej kondensacji</t>
       </text>
     </comment>
     <comment ref="AA5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Wielkość produkcji energii elektrycznej, która jest „tracona” na rzecz produkcji ciepła PPELC (upuszczona para mogłaby wykonać pracę na łopatach turbiny skutkującą produkcją energii elektrycznej)</t>
       </text>
     </comment>
@@ -3304,7 +3304,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3316,7 +3316,6 @@
     <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
@@ -3831,26 +3830,26 @@
     <xf numFmtId="9" fontId="3" fillId="9" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="102" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="103" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="103" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -3861,10 +3860,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="104" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="104" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="24" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3916,12 +3915,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="22" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3929,23 +3928,22 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
-    <cellStyle name="Normal - Style1 2 2 3" xfId="13" xr:uid="{6142E2CF-48F8-4F08-B4CD-C3158D1E903D}"/>
+  <cellStyles count="15">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal - Style1 2 2 3" xfId="12" xr:uid="{6142E2CF-48F8-4F08-B4CD-C3158D1E903D}"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
-    <cellStyle name="Normal 10 15 2" xfId="15" xr:uid="{8C3D6558-2A08-4BCF-A4B9-7E1BFBDEF52E}"/>
+    <cellStyle name="Normal 10 15 2" xfId="14" xr:uid="{8C3D6558-2A08-4BCF-A4B9-7E1BFBDEF52E}"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{A7260F85-B5B3-45B4-BDA7-1B7692316576}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
-    <cellStyle name="Normal 39 2 2" xfId="14" xr:uid="{5CF8F1DB-FA48-4849-A03A-B06DC7171FD5}"/>
+    <cellStyle name="Normal 39 2 2" xfId="13" xr:uid="{5CF8F1DB-FA48-4849-A03A-B06DC7171FD5}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
-    <cellStyle name="Normal_MIN" xfId="11" xr:uid="{14BA00A1-61F7-4C83-8915-76626B343681}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
     <cellStyle name="Normalny 43" xfId="7" xr:uid="{25509E4F-049A-4BCD-9F3D-F29DF0A232D3}"/>
     <cellStyle name="Normalny_S301-339-05" xfId="9" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
     <cellStyle name="Normalny_T206" xfId="10" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Per cent" xfId="8" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="6" xr:uid="{16AEAEF0-BCF7-4E92-A003-70F2F7EBC894}"/>
-    <cellStyle name="Procentowy" xfId="8" builtinId="5"/>
-    <cellStyle name="Procentowy 2" xfId="12" xr:uid="{EBC2401B-9DE0-466C-A148-E7C32A578432}"/>
+    <cellStyle name="Procentowy 2" xfId="11" xr:uid="{EBC2401B-9DE0-466C-A148-E7C32A578432}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -8957,8 +8955,8 @@
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="B2:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9216,8 +9214,7 @@
         <v>0.05</v>
       </c>
       <c r="P8" s="289">
-        <f>BALANCE!E13/BALANCE!D13*1000/8760+0.01</f>
-        <v>0.29637457639806086</v>
+        <v>0.4</v>
       </c>
       <c r="Q8" s="289">
         <f>50*4.5</f>
@@ -9365,7 +9362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10E190E-A840-421F-AF13-333F9C20228C}">
   <dimension ref="A2:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -10165,7 +10162,7 @@
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="V8" s="328" t="str">
+      <c r="V8" s="327" t="str">
         <f>SEC_Processes!E12</f>
         <v>Existing Hard Coal CHPs</v>
       </c>
@@ -10174,7 +10171,7 @@
         <v>58.53528</v>
       </c>
       <c r="X8" s="326"/>
-      <c r="Y8" s="327">
+      <c r="Y8" s="328">
         <f>L8*K8*O8/3.6</f>
         <v>16.259799999999998</v>
       </c>
@@ -10184,7 +10181,7 @@
       </c>
       <c r="AA8" s="326"/>
       <c r="AB8" s="326"/>
-      <c r="AC8" s="327">
+      <c r="AC8" s="328">
         <f>Z8*G8</f>
         <v>137.01729999999998</v>
       </c>
@@ -10231,14 +10228,14 @@
       <c r="Q9" s="246"/>
       <c r="R9" s="165"/>
       <c r="U9" s="326"/>
-      <c r="V9" s="328"/>
+      <c r="V9" s="327"/>
       <c r="W9" s="326"/>
       <c r="X9" s="326"/>
-      <c r="Y9" s="327"/>
+      <c r="Y9" s="328"/>
       <c r="Z9" s="326"/>
       <c r="AA9" s="326"/>
       <c r="AB9" s="326"/>
-      <c r="AC9" s="327"/>
+      <c r="AC9" s="328"/>
       <c r="AD9" s="326"/>
       <c r="AE9" s="326"/>
       <c r="AF9" s="326"/>
@@ -10267,14 +10264,14 @@
       <c r="Q10" s="246"/>
       <c r="R10" s="165"/>
       <c r="U10" s="326"/>
-      <c r="V10" s="328"/>
+      <c r="V10" s="327"/>
       <c r="W10" s="326"/>
       <c r="X10" s="326"/>
-      <c r="Y10" s="327"/>
+      <c r="Y10" s="328"/>
       <c r="Z10" s="326"/>
       <c r="AA10" s="326"/>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="327"/>
+      <c r="AC10" s="328"/>
       <c r="AD10" s="326"/>
       <c r="AE10" s="326"/>
       <c r="AF10" s="326"/>
@@ -10336,7 +10333,7 @@
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="V11" s="328" t="str">
+      <c r="V11" s="327" t="str">
         <f>SEC_Processes!E13</f>
         <v>Existing Natural Gas CHPs</v>
       </c>
@@ -10348,7 +10345,7 @@
         <f>L11*K11*O11/3.6</f>
         <v>8.6847975900000023</v>
       </c>
-      <c r="Y11" s="327">
+      <c r="Y11" s="328">
         <f>BALANCE!E12/1000</f>
         <v>7.4646000000000008</v>
       </c>
@@ -10364,7 +10361,7 @@
         <f>AA11*3.6</f>
         <v>4.3927113240000057</v>
       </c>
-      <c r="AC11" s="327">
+      <c r="AC11" s="328">
         <f>AB11/J11</f>
         <v>17.570845296000023</v>
       </c>
@@ -10411,14 +10408,14 @@
       <c r="Q12" s="189"/>
       <c r="R12" s="189"/>
       <c r="U12" s="326"/>
-      <c r="V12" s="328"/>
+      <c r="V12" s="327"/>
       <c r="W12" s="326"/>
       <c r="X12" s="326"/>
-      <c r="Y12" s="327"/>
+      <c r="Y12" s="328"/>
       <c r="Z12" s="326"/>
       <c r="AA12" s="326"/>
       <c r="AB12" s="326"/>
-      <c r="AC12" s="327"/>
+      <c r="AC12" s="328"/>
       <c r="AD12" s="326"/>
       <c r="AE12" s="326"/>
       <c r="AF12" s="326"/>
@@ -10447,14 +10444,14 @@
       <c r="Q13" s="192"/>
       <c r="R13" s="192"/>
       <c r="U13" s="326"/>
-      <c r="V13" s="328"/>
+      <c r="V13" s="327"/>
       <c r="W13" s="326"/>
       <c r="X13" s="326"/>
-      <c r="Y13" s="327"/>
+      <c r="Y13" s="328"/>
       <c r="Z13" s="326"/>
       <c r="AA13" s="326"/>
       <c r="AB13" s="326"/>
-      <c r="AC13" s="327"/>
+      <c r="AC13" s="328"/>
       <c r="AD13" s="326"/>
       <c r="AE13" s="326"/>
       <c r="AF13" s="326"/>
@@ -10494,22 +10491,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AG11:AG13"/>
     <mergeCell ref="AD11:AD13"/>
     <mergeCell ref="AE11:AE13"/>
     <mergeCell ref="AF11:AF13"/>
@@ -10522,6 +10503,22 @@
     <mergeCell ref="AA11:AA13"/>
     <mergeCell ref="AB11:AB13"/>
     <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -10535,6 +10532,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -10729,27 +10746,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{030DA033-D444-418D-A770-EDC7577334E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10766,25 +10784,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>